--- a/data/lesson_assign_dae_tableview.xlsx
+++ b/data/lesson_assign_dae_tableview.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,37 +473,202 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>장동훈</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>미분다양체론</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>최영준</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>복소해석학</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>이동희</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>추상대수학</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>김상일</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>응용수치해석학</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>이미경</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>편미분방정식론</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>이용훈</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>함수해석학</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>전공</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>목</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12,13,14,15,16,17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>607-211</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>비선형미분방정식론</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>김유식</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>위상수학특강(박사)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>김영락</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>대수곡선론</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>전공</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign_dae_tableview.xlsx
+++ b/data/lesson_assign_dae_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>미분다양체론</t>
+          <t>비선형미분방정식론</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,21 +489,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12,13,14,15,16,17,18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>607-211</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>최영준</t>
+          <t>이동희</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>복소해석학</t>
+          <t>추상대수학</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -514,21 +524,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>26</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0,1,2,3,4,5,6</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>607-211</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이동희</t>
+          <t>최영준</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>추상대수학</t>
+          <t>복소해석학</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -539,21 +559,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>26</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0,1,2,3,4,5,6</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>607-211</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>응용수치해석학</t>
+          <t>미분다양체론</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -564,21 +594,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>26</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0,1,2,3,4,5,6</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>607-207</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>편미분방정식론</t>
+          <t>응용수치해석학</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -589,21 +629,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>26</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12,13,14,15,16,17,18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>607-626</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>비선형미분방정식론</t>
+          <t>편미분방정식론</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -614,21 +664,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>26</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0,1,2,3,4,5,6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>607-311</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>김유식</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>위상수학특강(박사)</t>
+          <t>대수곡선론</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -639,21 +699,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>26</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8,9,10,11,12,13,14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>607-626</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>김유식</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>대수곡선론</t>
+          <t>위상수학특강(박사)</t>
         </is>
       </c>
       <c r="C9" t="n">

--- a/data/lesson_assign_dae_tableview.xlsx
+++ b/data/lesson_assign_dae_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>비선형미분방정식론</t>
+          <t>미분다양체론</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,31 +489,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>목</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12,13,14,15,16,17,18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>607-211</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이동희</t>
+          <t>최영준</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>추상대수학</t>
+          <t>복소해석학</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -524,31 +514,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>수</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0,1,2,3,4,5,6</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>607-211</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>최영준</t>
+          <t>이동희</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>복소해석학</t>
+          <t>추상대수학</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -559,31 +539,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>목</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0,1,2,3,4,5,6</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>607-211</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>미분다양체론</t>
+          <t>응용수치해석학</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -594,31 +564,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>금</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0,1,2,3,4,5,6</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>응용수치해석학</t>
+          <t>편미분방정식론</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -629,31 +589,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>수</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12,13,14,15,16,17,18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>607-626</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>편미분방정식론</t>
+          <t>비선형미분방정식론</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,31 +614,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>월</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0,1,2,3,4,5,6</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>607-311</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>김유식</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대수곡선론</t>
+          <t>위상수학특강(박사)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -699,31 +639,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>금</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8,9,10,11,12,13,14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>607-626</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>김유식</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>위상수학특강(박사)</t>
+          <t>대수곡선론</t>
         </is>
       </c>
       <c r="C9" t="n">

--- a/data/lesson_assign_dae_tableview.xlsx
+++ b/data/lesson_assign_dae_tableview.xlsx
@@ -491,17 +491,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>월</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12,13,14,15,16,17,18</t>
+          <t>12,13,14,15,16,17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>607-211</t>
+          <t>607-627</t>
         </is>
       </c>
     </row>
@@ -526,17 +526,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>금</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0,1,2,3,4,5,6</t>
+          <t>12,13,14,15,16,17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>607-211</t>
+          <t>607-311</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0,1,2,3,4,5,6</t>
+          <t>0,1,2,3,4,5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -594,21 +594,11 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>금</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0,1,2,3,4,5,6</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>607-207</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -636,7 +626,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12,13,14,15,16,17,18</t>
+          <t>0,1,2,3,4,5</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -666,17 +656,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>화</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0,1,2,3,4,5,6</t>
+          <t>10,11,12,13,14,15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>607-311</t>
+          <t>607-211</t>
         </is>
       </c>
     </row>
@@ -699,21 +689,11 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>금</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8,9,10,11,12,13,14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>607-626</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>26</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -734,11 +714,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>26</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>18,19,20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>607-626</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign_dae_tableview.xlsx
+++ b/data/lesson_assign_dae_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>비선형미분방정식론</t>
+          <t>미분다양체론</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,31 +489,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>월</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12,13,14,15,16,17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>607-627</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이동희</t>
+          <t>최영준</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>추상대수학</t>
+          <t>복소해석학</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -524,31 +514,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>금</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12,13,14,15,16,17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>607-311</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>최영준</t>
+          <t>이동희</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>복소해석학</t>
+          <t>추상대수학</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -559,31 +539,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>목</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0,1,2,3,4,5</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>607-211</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>미분다양체론</t>
+          <t>응용수치해석학</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -603,12 +573,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>응용수치해석학</t>
+          <t>편미분방정식론</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -619,31 +589,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>수</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0,1,2,3,4,5</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>607-626</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>편미분방정식론</t>
+          <t>비선형미분방정식론</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -654,31 +614,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>화</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10,11,12,13,14,15</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>607-211</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>김유식</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대수곡선론</t>
+          <t>위상수학특강(박사)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -698,12 +648,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>김유식</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>위상수학특강(박사)</t>
+          <t>대수곡선론</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -714,21 +664,11 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>18,19,20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>607-626</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign_dae_tableview.xlsx
+++ b/data/lesson_assign_dae_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>미분다양체론</t>
+          <t>비선형미분방정식론</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,21 +489,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>607-211</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>최영준</t>
+          <t>이동희</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>복소해석학</t>
+          <t>추상대수학</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -514,21 +524,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>26</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12,13,14,15,16,17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>607-311</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>이동희</t>
+          <t>최영준</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>추상대수학</t>
+          <t>복소해석학</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -539,21 +559,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>26</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>왈,수</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9,10,11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>607-309</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>응용수치해석학</t>
+          <t>미분다양체론</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -564,21 +594,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>26</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0,1,2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>607-211</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>편미분방정식론</t>
+          <t>응용수치해석학</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -589,21 +629,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>26</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>월,수</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15,16,17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>607-627</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>비선형미분방정식론</t>
+          <t>편미분방정식론</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -614,21 +664,31 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>26</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0,1,2,3,4,5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>607-311</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>김유식</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>위상수학특강(박사)</t>
+          <t>대수곡선론</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -648,12 +708,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>김유식</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>대수곡선론</t>
+          <t>위상수학특강(박사)</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -664,11 +724,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>26</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>화,목</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>18,19,20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>607-626</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign_dae_tableview.xlsx
+++ b/data/lesson_assign_dae_tableview.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>이용훈</t>
+          <t>장동훈</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>비선형미분방정식론</t>
+          <t>미분다양체론</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -489,31 +489,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>607-211</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>이동희</t>
+          <t>최영준</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>추상대수학</t>
+          <t>복소해석학</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -524,31 +514,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>금</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12,13,14,15,16,17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>607-311</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>최영준</t>
+          <t>이동희</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>복소해석학</t>
+          <t>추상대수학</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -559,31 +539,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>왈,수</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9,10,11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>607-309</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>장동훈</t>
+          <t>김상일</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>미분다양체론</t>
+          <t>응용수치해석학</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -594,31 +564,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0,1,2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>607-211</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>김상일</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>응용수치해석학</t>
+          <t>편미분방정식론</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -629,31 +589,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>월,수</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15,16,17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>607-627</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>이용훈</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>편미분방정식론</t>
+          <t>비선형미분방정식론</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,31 +614,21 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>월</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0,1,2,3,4,5</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>607-311</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>김영락</t>
+          <t>김유식</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대수곡선론</t>
+          <t>위상수학특강(박사)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -708,12 +648,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>김유식</t>
+          <t>김영락</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>위상수학특강(박사)</t>
+          <t>대수곡선론</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -724,21 +664,11 @@
           <t>전공</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>화,목</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>18,19,20</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>607-626</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>26</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/lesson_assign_dae_tableview.xlsx
+++ b/data/lesson_assign_dae_tableview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>교수명</t>
   </si>
@@ -37,55 +37,97 @@
     <t>강의실명</t>
   </si>
   <si>
+    <t>이용훈</t>
+  </si>
+  <si>
+    <t>이동희</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
     <t>장동훈</t>
   </si>
   <si>
-    <t>최영준</t>
-  </si>
-  <si>
-    <t>이동희</t>
-  </si>
-  <si>
     <t>김상일</t>
   </si>
   <si>
     <t>이미경</t>
   </si>
   <si>
-    <t>이용훈</t>
+    <t>김영락</t>
   </si>
   <si>
     <t>김유식</t>
   </si>
   <si>
-    <t>김영락</t>
+    <t>비선형미분방정식론</t>
+  </si>
+  <si>
+    <t>추상대수학</t>
+  </si>
+  <si>
+    <t>복소해석학</t>
   </si>
   <si>
     <t>미분다양체론</t>
   </si>
   <si>
-    <t>복소해석학</t>
-  </si>
-  <si>
-    <t>추상대수학</t>
-  </si>
-  <si>
     <t>응용수치해석학</t>
   </si>
   <si>
     <t>편미분방정식론</t>
   </si>
   <si>
-    <t>비선형미분방정식론</t>
+    <t>대수곡선론</t>
   </si>
   <si>
     <t>위상수학특강(박사)</t>
   </si>
   <si>
-    <t>대수곡선론</t>
-  </si>
-  <si>
     <t>전공</t>
+  </si>
+  <si>
+    <t>화,목</t>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+  <si>
+    <t>목</t>
+  </si>
+  <si>
+    <t>월,수</t>
+  </si>
+  <si>
+    <t>9,10,11</t>
+  </si>
+  <si>
+    <t>12,13,14,15,16,17</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>15,16,17</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>18,19,20</t>
+  </si>
+  <si>
+    <t>607-626</t>
+  </si>
+  <si>
+    <t>607-613</t>
+  </si>
+  <si>
+    <t>607-211</t>
+  </si>
+  <si>
+    <t>607-627</t>
   </si>
 </sst>
 </file>
@@ -485,8 +527,14 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="F2">
-        <v>26</v>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -502,8 +550,14 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="F3">
-        <v>26</v>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -519,8 +573,14 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="F4">
+      <c r="E4" t="s">
         <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -553,8 +613,14 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="F6">
-        <v>26</v>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -587,8 +653,14 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="F8">
-        <v>26</v>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -604,8 +676,14 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="F9">
-        <v>26</v>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/lesson_assign_dae_tableview.xlsx
+++ b/data/lesson_assign_dae_tableview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>교수명</t>
   </si>
@@ -37,97 +37,55 @@
     <t>강의실명</t>
   </si>
   <si>
+    <t>장동훈</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
+    <t>이동희</t>
+  </si>
+  <si>
+    <t>김상일</t>
+  </si>
+  <si>
+    <t>이미경</t>
+  </si>
+  <si>
     <t>이용훈</t>
   </si>
   <si>
-    <t>이동희</t>
-  </si>
-  <si>
-    <t>최영준</t>
-  </si>
-  <si>
-    <t>장동훈</t>
-  </si>
-  <si>
-    <t>김상일</t>
-  </si>
-  <si>
-    <t>이미경</t>
+    <t>김유식</t>
   </si>
   <si>
     <t>김영락</t>
   </si>
   <si>
-    <t>김유식</t>
+    <t>미분다양체론</t>
+  </si>
+  <si>
+    <t>복소해석학</t>
+  </si>
+  <si>
+    <t>추상대수학</t>
+  </si>
+  <si>
+    <t>응용수치해석학</t>
+  </si>
+  <si>
+    <t>편미분방정식론</t>
   </si>
   <si>
     <t>비선형미분방정식론</t>
   </si>
   <si>
-    <t>추상대수학</t>
-  </si>
-  <si>
-    <t>복소해석학</t>
-  </si>
-  <si>
-    <t>미분다양체론</t>
-  </si>
-  <si>
-    <t>응용수치해석학</t>
-  </si>
-  <si>
-    <t>편미분방정식론</t>
+    <t>위상수학특강(박사)</t>
   </si>
   <si>
     <t>대수곡선론</t>
   </si>
   <si>
-    <t>위상수학특강(박사)</t>
-  </si>
-  <si>
     <t>전공</t>
-  </si>
-  <si>
-    <t>화,목</t>
-  </si>
-  <si>
-    <t>금</t>
-  </si>
-  <si>
-    <t>목</t>
-  </si>
-  <si>
-    <t>월,수</t>
-  </si>
-  <si>
-    <t>9,10,11</t>
-  </si>
-  <si>
-    <t>12,13,14,15,16,17</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>15,16,17</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-  </si>
-  <si>
-    <t>18,19,20</t>
-  </si>
-  <si>
-    <t>607-626</t>
-  </si>
-  <si>
-    <t>607-613</t>
-  </si>
-  <si>
-    <t>607-211</t>
-  </si>
-  <si>
-    <t>607-627</t>
   </si>
 </sst>
 </file>
@@ -527,14 +485,8 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
+      <c r="F2">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -550,14 +502,8 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
+      <c r="F3">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -573,14 +519,8 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
+      <c r="F4">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -613,14 +553,8 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
+      <c r="F6">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -653,14 +587,8 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
+      <c r="F8">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -676,14 +604,8 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
+      <c r="F9">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
